--- a/Code/Results/Cases/Case_0_72/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_72/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.918016673070114</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>12.98028202637455</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>16.37366316907453</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>67.39193214683654</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.631837947722734</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>35.23121255589682</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>15.89197758649935</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4.750267291386484</v>
+      </c>
+      <c r="D3">
+        <v>12.53186952241405</v>
+      </c>
+      <c r="E3">
+        <v>15.44709489424098</v>
+      </c>
+      <c r="F3">
+        <v>64.63107038113741</v>
+      </c>
+      <c r="G3">
+        <v>3.648828577940824</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>33.72385199818987</v>
+      </c>
+      <c r="N3">
+        <v>15.85909762204758</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4.647619148094247</v>
+      </c>
+      <c r="D4">
+        <v>12.2590377842895</v>
+      </c>
+      <c r="E4">
+        <v>14.85543930852898</v>
+      </c>
+      <c r="F4">
+        <v>62.92915217549883</v>
+      </c>
+      <c r="G4">
+        <v>3.659643687829258</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>32.78158398345721</v>
+      </c>
+      <c r="N4">
+        <v>15.84143854084396</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4.605933830924706</v>
+      </c>
+      <c r="D5">
+        <v>12.14863231961146</v>
+      </c>
+      <c r="E5">
+        <v>14.60882535276252</v>
+      </c>
+      <c r="F5">
+        <v>62.23492268488038</v>
+      </c>
+      <c r="G5">
+        <v>3.664149246282396</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>32.39392897383072</v>
+      </c>
+      <c r="N5">
+        <v>15.83489231264841</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4.599022470854516</v>
+      </c>
+      <c r="D6">
+        <v>12.13035090723014</v>
+      </c>
+      <c r="E6">
+        <v>14.56754957494085</v>
+      </c>
+      <c r="F6">
+        <v>62.11963656262998</v>
+      </c>
+      <c r="G6">
+        <v>3.664903387233557</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>32.3293543285959</v>
+      </c>
+      <c r="N6">
+        <v>15.83384497268916</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>4.647056302436757</v>
+      </c>
+      <c r="D7">
+        <v>12.25754547520054</v>
+      </c>
+      <c r="E7">
+        <v>14.85213538355757</v>
+      </c>
+      <c r="F7">
+        <v>62.91979091456746</v>
+      </c>
+      <c r="G7">
+        <v>3.659704050638981</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>32.77637004530867</v>
+      </c>
+      <c r="N7">
+        <v>15.84134760623319</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4.860136568033306</v>
+      </c>
+      <c r="D8">
+        <v>12.82523765577639</v>
+      </c>
+      <c r="E8">
+        <v>16.05901248052121</v>
+      </c>
+      <c r="F8">
+        <v>66.44195941390879</v>
+      </c>
+      <c r="G8">
+        <v>3.637618135085546</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>34.71525047213465</v>
+      </c>
+      <c r="N8">
+        <v>15.88012414391214</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>5.27851288166802</v>
+      </c>
+      <c r="D9">
+        <v>13.95230253167383</v>
+      </c>
+      <c r="E9">
+        <v>18.23839034295088</v>
+      </c>
+      <c r="F9">
+        <v>73.25668575090675</v>
+      </c>
+      <c r="G9">
+        <v>3.597247135356132</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>38.36447979123292</v>
+      </c>
+      <c r="N9">
+        <v>15.97559446413808</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>5.583573078392026</v>
+      </c>
+      <c r="D10">
+        <v>14.78174479375656</v>
+      </c>
+      <c r="E10">
+        <v>19.71890491222312</v>
+      </c>
+      <c r="F10">
+        <v>78.16377091986159</v>
+      </c>
+      <c r="G10">
+        <v>3.569234297386187</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>40.93031195035891</v>
+      </c>
+      <c r="N10">
+        <v>16.05668280179677</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5.721407550145845</v>
+      </c>
+      <c r="D11">
+        <v>15.15820256812254</v>
+      </c>
+      <c r="E11">
+        <v>20.36550707803119</v>
+      </c>
+      <c r="F11">
+        <v>80.36771614839381</v>
+      </c>
+      <c r="G11">
+        <v>3.55681427714739</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>42.06918480365141</v>
+      </c>
+      <c r="N11">
+        <v>16.09574505803823</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>5.773438183266828</v>
+      </c>
+      <c r="D12">
+        <v>15.30055758087087</v>
+      </c>
+      <c r="E12">
+        <v>20.60646513762964</v>
+      </c>
+      <c r="F12">
+        <v>81.19781211729435</v>
+      </c>
+      <c r="G12">
+        <v>3.552154601526559</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>42.49616840021586</v>
+      </c>
+      <c r="N12">
+        <v>16.11083167098302</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>5.762240160597164</v>
+      </c>
+      <c r="D13">
+        <v>15.26990888735656</v>
+      </c>
+      <c r="E13">
+        <v>20.55474401592076</v>
+      </c>
+      <c r="F13">
+        <v>81.01924125947319</v>
+      </c>
+      <c r="G13">
+        <v>3.553156259893456</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>42.40440305780727</v>
+      </c>
+      <c r="N13">
+        <v>16.10756969307673</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>5.725691579289874</v>
+      </c>
+      <c r="D14">
+        <v>15.16991861895117</v>
+      </c>
+      <c r="E14">
+        <v>20.38540901419713</v>
+      </c>
+      <c r="F14">
+        <v>80.43610062825014</v>
+      </c>
+      <c r="G14">
+        <v>3.556430068350379</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>42.10439983359713</v>
+      </c>
+      <c r="N14">
+        <v>16.09698044509149</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>5.70328236230409</v>
+      </c>
+      <c r="D15">
+        <v>15.10864346145872</v>
+      </c>
+      <c r="E15">
+        <v>20.28117856294163</v>
+      </c>
+      <c r="F15">
+        <v>80.07831490788723</v>
+      </c>
+      <c r="G15">
+        <v>3.558440946513763</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>41.9200762019488</v>
+      </c>
+      <c r="N15">
+        <v>16.09053203899543</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>5.574543730559997</v>
+      </c>
+      <c r="D16">
+        <v>14.75711804500718</v>
+      </c>
+      <c r="E16">
+        <v>19.67610379607181</v>
+      </c>
+      <c r="F16">
+        <v>78.01912976423105</v>
+      </c>
+      <c r="G16">
+        <v>3.570052229885163</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>40.85529468233662</v>
+      </c>
+      <c r="N16">
+        <v>16.05417221698965</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>5.495303429077631</v>
+      </c>
+      <c r="D17">
+        <v>14.54118751301501</v>
+      </c>
+      <c r="E17">
+        <v>19.29799434555895</v>
+      </c>
+      <c r="F17">
+        <v>76.7483002961303</v>
+      </c>
+      <c r="G17">
+        <v>3.577256107177003</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>40.19466236803593</v>
+      </c>
+      <c r="N17">
+        <v>16.03241094682225</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>5.449639478648666</v>
+      </c>
+      <c r="D18">
+        <v>14.41691262186091</v>
+      </c>
+      <c r="E18">
+        <v>19.07798483773204</v>
+      </c>
+      <c r="F18">
+        <v>76.01470556911866</v>
+      </c>
+      <c r="G18">
+        <v>3.581430192673626</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>39.81202573708247</v>
+      </c>
+      <c r="N18">
+        <v>16.02010026372619</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>5.434164498701452</v>
+      </c>
+      <c r="D19">
+        <v>14.3748246494848</v>
+      </c>
+      <c r="E19">
+        <v>19.00305997343867</v>
+      </c>
+      <c r="F19">
+        <v>75.76588298198067</v>
+      </c>
+      <c r="G19">
+        <v>3.582848809581924</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>39.6820222063248</v>
+      </c>
+      <c r="N19">
+        <v>16.01596797075969</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>5.503747933396212</v>
+      </c>
+      <c r="D20">
+        <v>14.56418231259596</v>
+      </c>
+      <c r="E20">
+        <v>19.33850697004575</v>
+      </c>
+      <c r="F20">
+        <v>76.88385963949547</v>
+      </c>
+      <c r="G20">
+        <v>3.576486095303288</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>40.26526462021295</v>
+      </c>
+      <c r="N20">
+        <v>16.03470629857317</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>5.736431444063061</v>
+      </c>
+      <c r="D21">
+        <v>15.1992941816885</v>
+      </c>
+      <c r="E21">
+        <v>20.43525267000336</v>
+      </c>
+      <c r="F21">
+        <v>80.60750780372148</v>
+      </c>
+      <c r="G21">
+        <v>3.555467314992562</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>42.19263567567008</v>
+      </c>
+      <c r="N21">
+        <v>16.10008291679794</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>5.887536904213916</v>
+      </c>
+      <c r="D22">
+        <v>15.61317929381606</v>
+      </c>
+      <c r="E22">
+        <v>21.12933159965972</v>
+      </c>
+      <c r="F22">
+        <v>83.01484031118179</v>
+      </c>
+      <c r="G22">
+        <v>3.541982450815442</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>43.42726169604475</v>
+      </c>
+      <c r="N22">
+        <v>16.14451849485705</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>5.806985545496344</v>
+      </c>
+      <c r="D23">
+        <v>15.39241164628951</v>
+      </c>
+      <c r="E23">
+        <v>20.76097028278491</v>
+      </c>
+      <c r="F23">
+        <v>81.73251587577856</v>
+      </c>
+      <c r="G23">
+        <v>3.549157538263306</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>42.77066290169522</v>
+      </c>
+      <c r="N23">
+        <v>16.1206522560451</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>5.49993050598777</v>
+      </c>
+      <c r="D24">
+        <v>14.5537867735728</v>
+      </c>
+      <c r="E24">
+        <v>19.32019939987781</v>
+      </c>
+      <c r="F24">
+        <v>76.82258250283985</v>
+      </c>
+      <c r="G24">
+        <v>3.576834116281205</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>40.2333541413988</v>
+      </c>
+      <c r="N24">
+        <v>16.03366794522334</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>5.16556846263052</v>
+      </c>
+      <c r="D25">
+        <v>13.64670313365094</v>
+      </c>
+      <c r="E25">
+        <v>17.66966365679072</v>
+      </c>
+      <c r="F25">
+        <v>71.42793482525141</v>
+      </c>
+      <c r="G25">
+        <v>3.607868259351383</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>37.39616177573086</v>
+      </c>
+      <c r="N25">
+        <v>15.94777768175853</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
